--- a/MHSP/data/Victim_Info.xlsx
+++ b/MHSP/data/Victim_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54CF1C9-A2CB-4CEB-BA11-3C2E88BA0F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655BEBE-511C-4786-98D3-35251002C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,48 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>group</t>
   </si>
   <si>
     <t>CU_g</t>
-  </si>
-  <si>
-    <t>CC_C18_NP</t>
-  </si>
-  <si>
-    <t>CC_C18_P</t>
-  </si>
-  <si>
-    <t>CC_NC18_NP</t>
-  </si>
-  <si>
-    <t>CC_NC18_P</t>
-  </si>
-  <si>
-    <t>CC_65_NP</t>
-  </si>
-  <si>
-    <t>CC_65_P</t>
-  </si>
-  <si>
-    <t>S_C18_NP</t>
-  </si>
-  <si>
-    <t>S_C18_P</t>
-  </si>
-  <si>
-    <t>S_NC18_NP</t>
-  </si>
-  <si>
-    <t>S_NC18_P</t>
-  </si>
-  <si>
-    <t>S_65_NP</t>
-  </si>
-  <si>
-    <t>S_65_P</t>
   </si>
 </sst>
 </file>
@@ -403,113 +367,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>800000*2.25</f>
-        <v>1800000</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <f>800000*2.7</f>
-        <v>2160000</v>
-      </c>
-      <c r="D2" s="1">
-        <f>80000*1.65</f>
-        <v>132000</v>
-      </c>
-      <c r="E2" s="1">
-        <f>80000*2.5</f>
-        <v>200000</v>
-      </c>
-      <c r="F2" s="1">
-        <f>80000*2</f>
-        <v>160000</v>
-      </c>
-      <c r="G2" s="1">
-        <f>80000*2</f>
-        <v>160000</v>
-      </c>
-      <c r="H2" s="1">
-        <f>80000*2.7</f>
-        <v>216000</v>
-      </c>
-      <c r="I2" s="1">
-        <f>80000*2.7</f>
-        <v>216000</v>
-      </c>
-      <c r="J2" s="1">
-        <f>80000*1.5</f>
-        <v>120000</v>
-      </c>
-      <c r="K2" s="1">
-        <f>80000*2.25</f>
-        <v>180000</v>
-      </c>
-      <c r="L2" s="1">
-        <f>80000*2</f>
-        <v>160000</v>
-      </c>
-      <c r="M2" s="1">
-        <f>80000*2</f>
-        <v>160000</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/MHSP/data/Victim_Info.xlsx
+++ b/MHSP/data/Victim_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655BEBE-511C-4786-98D3-35251002C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD77E71-AA1B-4158-96E0-161391E4917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,17 +370,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,15 +391,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
